--- a/data/documentation/spreadsheets/done/avajs@ava.xlsx
+++ b/data/documentation/spreadsheets/done/avajs@ava.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fronchettl\Documents\GitHub\USP-2020\data\documentation\spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fronchettl\Documents\GitHub\usp\data\documentation\spreadsheets\done\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA898C4-30C5-4DA0-9913-4BFAA0EFE6C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F87746A-AF7B-46E8-BD4D-BC91147C211A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
   <si>
     <t>CF – Contribution flow</t>
   </si>
@@ -477,18 +477,18 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G40" sqref="G40"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="32.5" customWidth="1"/>
-    <col min="2" max="7" width="22.5" customWidth="1"/>
-    <col min="8" max="26" width="7.59765625" customWidth="1"/>
+    <col min="1" max="1" width="32.47265625" customWidth="1"/>
+    <col min="2" max="7" width="22.47265625" customWidth="1"/>
+    <col min="8" max="26" width="7.6171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,17 +508,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -526,12 +526,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -539,77 +539,77 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>25</v>
       </c>
@@ -617,7 +617,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="7" t="s">
         <v>26</v>
       </c>
@@ -625,7 +625,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="7" t="s">
         <v>27</v>
       </c>
@@ -633,12 +633,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="7" t="s">
         <v>29</v>
       </c>
@@ -646,7 +646,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="7" t="s">
         <v>30</v>
       </c>
@@ -654,7 +654,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
         <v>31</v>
       </c>
@@ -662,7 +662,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="7" t="s">
         <v>32</v>
       </c>
@@ -670,7 +670,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="7" t="s">
         <v>33</v>
       </c>
@@ -678,29 +678,23 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B30" t="s">
         <v>44</v>
       </c>
-      <c r="G30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:4" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B31" t="s">
         <v>44</v>
       </c>
-      <c r="G31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:4" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="7" t="s">
         <v>36</v>
       </c>
@@ -708,7 +702,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>37</v>
       </c>
@@ -716,18 +710,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B34" t="s">
-        <v>44</v>
-      </c>
       <c r="G34" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="7" t="s">
         <v>39</v>
       </c>
@@ -735,7 +726,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="7" t="s">
         <v>40</v>
       </c>
@@ -743,7 +734,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="7" t="s">
         <v>41</v>
       </c>
@@ -751,7 +742,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="7" t="s">
         <v>42</v>
       </c>
@@ -759,7 +750,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>43</v>
       </c>
